--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,6 +760,146 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D10" t="n">
+        <v>72</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11.124</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20:40:51 26-11-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D11" t="n">
+        <v>72</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11.124</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20:40:51 26-11-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D12" t="n">
+        <v>72</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>20.376</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>17:50:57 28-11-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>83</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>19:45:03 02-12-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,6 +900,1371 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D14" t="n">
+        <v>85</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>light intensity shower rain</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="H14" t="n">
+        <v>20</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20:07:29 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>20:28:41 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D16" t="n">
+        <v>85</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H16" t="n">
+        <v>20</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20:45:26 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D17" t="n">
+        <v>85</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20:58:56 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D18" t="n">
+        <v>83</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>22.212</v>
+      </c>
+      <c r="H18" t="n">
+        <v>75</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>21:17:35 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>18:49:43 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D20" t="n">
+        <v>85</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>18:49:43 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B21" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D21" t="n">
+        <v>85</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>18:49:43 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D22" t="n">
+        <v>85</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>18:49:43 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D23" t="n">
+        <v>85</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>20</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>18:49:43 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D24" t="n">
+        <v>85</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>18:49:43 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D25" t="n">
+        <v>85</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>20</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>18:49:43 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D26" t="n">
+        <v>85</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>18:49:43 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D27" t="n">
+        <v>85</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>20</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>18:49:43 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D28" t="n">
+        <v>86</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D29" t="n">
+        <v>86</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>20</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D30" t="n">
+        <v>86</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>20</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D31" t="n">
+        <v>86</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D32" t="n">
+        <v>86</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>20</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D33" t="n">
+        <v>86</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>20</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D34" t="n">
+        <v>86</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>20</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D35" t="n">
+        <v>86</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>20</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D36" t="n">
+        <v>86</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>20</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D37" t="n">
+        <v>86</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>20</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D38" t="n">
+        <v>86</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>20</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D39" t="n">
+        <v>86</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>20</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D40" t="n">
+        <v>86</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>20</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D41" t="n">
+        <v>86</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>20</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B42" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D42" t="n">
+        <v>86</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>20</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D43" t="n">
+        <v>86</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D44" t="n">
+        <v>86</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>20</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B45" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D45" t="n">
+        <v>86</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>20</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>19:00:19 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D46" t="n">
+        <v>88</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H46" t="n">
+        <v>20</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>19:30:03 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D47" t="n">
+        <v>88</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H47" t="n">
+        <v>20</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>19:31:04 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D48" t="n">
+        <v>88</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H48" t="n">
+        <v>20</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>19:31:04 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D49" t="n">
+        <v>88</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H49" t="n">
+        <v>20</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>19:31:04 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D50" t="n">
+        <v>88</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>19:31:04 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B51" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D51" t="n">
+        <v>88</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>19:31:04 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D52" t="n">
+        <v>88</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>24.084</v>
+      </c>
+      <c r="H52" t="n">
+        <v>20</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>19:31:04 08-12-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
